--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2111412.403005784</v>
+        <v>2217305.674580969</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>698313.6830760738</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5979955.238083308</v>
+        <v>6369310.659864035</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>43.36616070948365</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.66548829251629</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>11.12043047005175</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>110.1891282340271</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>142.6892461777147</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>58.35158191755285</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.13410914208</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>110.8471439350452</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1105,22 +1107,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1148,7 +1150,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>154.6054260348455</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>96.86449739519662</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>105.9875504075058</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1379,7 +1381,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>102.6202690426103</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.669536049219191</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1543,10 +1545,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>62.10069176175754</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1588,7 +1590,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1607,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1619,10 +1621,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.3236405495131</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.310955130690663</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1667,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1765,25 +1767,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>60.43371561435734</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>73.50111029899463</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1818,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1907,10 +1909,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="18">
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.5461237886706</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>54.83479592343207</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>115.1055716303431</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2141,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2242,7 +2244,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.6836051444932</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2257,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100407</v>
+        <v>260.444681387164</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526348093</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>11.12043047005062</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2725,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>106.2107844952006</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>161.8970328977319</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1055716303381</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3424,22 +3426,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>51.69511841098215</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>200.3509450707811</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3484,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>14.12442881973876</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>66.87410330592532</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892093</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>311.0876633699169</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>244.0883786636596</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>89.03018043120986</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>204.7836643644771</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>172.9587714564408</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>149.1427835161695</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4183,7 +4185,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4201,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>61.11629352784362</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129.9297397222204</v>
+        <v>1699.368187588183</v>
       </c>
       <c r="C2" t="n">
-        <v>107.0694137759246</v>
+        <v>1676.507861641888</v>
       </c>
       <c r="D2" t="n">
-        <v>87.81719700132894</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4334,19 +4336,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M2" t="n">
-        <v>957.7672188505812</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.269438076291</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
         <v>2107.354917580474</v>
@@ -4355,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2195.956213783067</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>1975.0306428277</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>1716.675733424112</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>1359.186318550362</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W2" t="n">
-        <v>962.7949688507088</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X2" t="n">
-        <v>551.074970018456</v>
+        <v>1716.473013844015</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.7376999733464</v>
+        <v>1715.176147839309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>423.6702648437783</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L3" t="n">
-        <v>490.8953374243588</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>1041.560872408797</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>1592.226407393235</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.226407393235</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>729.0902991667042</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="C4" t="n">
-        <v>557.1177360456202</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="D4" t="n">
-        <v>393.8009631723909</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E4" t="n">
-        <v>227.5927573252444</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>55.73098309980486</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4510,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1944.726803962681</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1663.01533657071</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1388.162932743223</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>1145.599036189028</v>
+        <v>816.3477744440902</v>
       </c>
       <c r="Y4" t="n">
-        <v>919.2562678787699</v>
+        <v>816.3477744440902</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.0105478030287</v>
+        <v>2200.126831414696</v>
       </c>
       <c r="C5" t="n">
-        <v>511.1098178163287</v>
+        <v>2055.996279720035</v>
       </c>
       <c r="D5" t="n">
-        <v>87.81719700132894</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4568,25 +4570,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>455.3583126271592</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1006.023847611597</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4604,13 +4606,13 @@
         <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1828.519902762723</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1416.799903930471</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1357.858912094559</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>287.7093087981016</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>838.3748437825398</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>838.3748437825398</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="P6" t="n">
         <v>1389.040378766978</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>738.2594066832703</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>566.2868435621863</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F7" t="n">
         <v>454.3200315065851</v>
@@ -4723,52 +4725,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894584</v>
+        <v>1727.553143168989</v>
       </c>
       <c r="V7" t="n">
-        <v>1764.398243894584</v>
+        <v>1445.841675777018</v>
       </c>
       <c r="W7" t="n">
-        <v>1764.398243894584</v>
+        <v>1170.989271949531</v>
       </c>
       <c r="X7" t="n">
-        <v>1521.834347340389</v>
+        <v>928.4253753953359</v>
       </c>
       <c r="Y7" t="n">
-        <v>1295.491579030131</v>
+        <v>928.4253753953359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>938.0105478030285</v>
+        <v>2043.959734409802</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>1617.059004423102</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4802,22 +4804,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N8" t="n">
-        <v>1768.825772958194</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
         <v>1768.825772958194</v>
@@ -4838,16 +4840,16 @@
         <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588626</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1867.421837588626</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="X8" t="n">
-        <v>1455.701838756373</v>
+        <v>2061.064560665634</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>2059.767694660928</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>756.3555336978366</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>756.3555336978366</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>961.4223778677172</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>789.4498147466331</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>626.1330418734038</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E10" t="n">
-        <v>459.9248360262574</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0630618008178</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008178</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089722</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1900.679459943931</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1620.495011444236</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1620.495011444236</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1620.495011444236</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1377.931114890041</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1151.588346579783</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2181.613590760458</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1754.712860773758</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.420239958758</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>905.4433001066155</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898374</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>1142.793917289187</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1943.23552968699</v>
+        <v>2060.609099011031</v>
       </c>
       <c r="M11" t="n">
-        <v>2316.109577559901</v>
+        <v>3064.895200430089</v>
       </c>
       <c r="N11" t="n">
-        <v>2316.109577559901</v>
+        <v>4041.14625891679</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>3013.181953884241</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>3013.181953884241</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>3013.181953884241</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>3013.181953884241</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>2601.461955051988</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2601.461955051988</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679215</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L12" t="n">
-        <v>64.68215049679215</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="M12" t="n">
-        <v>64.68215049679215</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="N12" t="n">
-        <v>865.123762894595</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="O12" t="n">
-        <v>1665.565375292398</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P12" t="n">
-        <v>1665.565375292398</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.8182018988357</v>
+        <v>684.4570266215845</v>
       </c>
       <c r="C13" t="n">
-        <v>628.8456387777517</v>
+        <v>684.4570266215845</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5288659045224</v>
+        <v>684.4570266215845</v>
       </c>
       <c r="E13" t="n">
-        <v>465.5288659045224</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>293.6670916790828</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>127.4101219733149</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2074.960130429055</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T13" t="n">
-        <v>1831.620782654955</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U13" t="n">
-        <v>1551.43633415526</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V13" t="n">
-        <v>1269.724866763288</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W13" t="n">
-        <v>1269.724866763288</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X13" t="n">
-        <v>1027.160970209094</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y13" t="n">
-        <v>800.8182018988357</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1373.972764231063</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>1373.972764231063</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>950.6801434160632</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>524.7032035639207</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
-        <v>99.57902175332094</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
-        <v>99.57902175332094</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>1142.793917289187</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L14" t="n">
-        <v>1142.793917289187</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M14" t="n">
-        <v>1725.386633283877</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N14" t="n">
-        <v>2525.82824568168</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O14" t="n">
-        <v>2525.82824568168</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P14" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3226.722721677294</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3226.722721677294</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2968.367812273706</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2610.878397399955</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2610.878397399955</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2199.158398567703</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>1793.821128522593</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1992.543385290553</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>1875.037481808058</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>1771.197523323343</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>1666.49558959628</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>1572.849759279184</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>1478.795987496788</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>1635.448885318603</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>1635.448885318603</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="L15" t="n">
-        <v>1635.448885318603</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="M15" t="n">
-        <v>1635.448885318603</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="N15" t="n">
-        <v>1635.448885318603</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O15" t="n">
-        <v>2435.890497716406</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P15" t="n">
-        <v>3152.088214754904</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
-        <v>3152.088214754904</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>3234.107524839607</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>3152.783277400862</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>3010.90334169854</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>2826.135145618177</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>2621.162006757443</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>2424.64062959066</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>2261.163283357324</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>2121.470394710616</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.6136198739432</v>
+        <v>847.6798067024497</v>
       </c>
       <c r="C16" t="n">
-        <v>563.6136198739432</v>
+        <v>675.7072435813657</v>
       </c>
       <c r="D16" t="n">
-        <v>502.5694626877237</v>
+        <v>512.3904707081364</v>
       </c>
       <c r="E16" t="n">
-        <v>502.5694626877237</v>
+        <v>346.1822648609899</v>
       </c>
       <c r="F16" t="n">
-        <v>330.7076884622841</v>
+        <v>174.3204906355503</v>
       </c>
       <c r="G16" t="n">
-        <v>164.4507187565162</v>
+        <v>174.3204906355503</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>174.3204906355503</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342129</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="U16" t="n">
-        <v>1504.397720842433</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="V16" t="n">
-        <v>1222.686253450462</v>
+        <v>1781.604844106455</v>
       </c>
       <c r="W16" t="n">
-        <v>1222.686253450462</v>
+        <v>1506.752440278968</v>
       </c>
       <c r="X16" t="n">
-        <v>980.1223568962668</v>
+        <v>1264.188543724773</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.7795885860088</v>
+        <v>1037.845775414515</v>
       </c>
     </row>
     <row r="17">
@@ -5555,7 +5557,7 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5601,13 +5603,13 @@
         <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.79262694784</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930061</v>
+        <v>733.7214084612541</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808977</v>
+        <v>733.7214084612541</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357478</v>
+        <v>733.7214084612541</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>567.5132026141076</v>
       </c>
       <c r="F19" t="n">
         <v>512.1245198631661</v>
@@ -5674,49 +5676,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358278</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302486</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="T19" t="n">
-        <v>2235.67712750613</v>
+        <v>2039.376393044861</v>
       </c>
       <c r="U19" t="n">
-        <v>2235.67712750613</v>
+        <v>1759.191944545165</v>
       </c>
       <c r="V19" t="n">
-        <v>2119.408873334066</v>
+        <v>1477.480477153194</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.55646950658</v>
+        <v>1202.628073325707</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952385</v>
+        <v>960.0641767715121</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642127</v>
+        <v>733.7214084612541</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,25 +5755,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,7 +5788,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
         <v>3777.607131232208</v>
@@ -5838,13 +5840,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>105.4776804749704</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930062</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808978</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5944,16 +5946,16 @@
         <v>2282.715740818957</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334067</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.55646950658</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952385</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642127</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="23">
@@ -5999,7 +6001,7 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O23" t="n">
         <v>4406.8563911335</v>
@@ -6075,10 +6077,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3608.081958945198</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C25" t="n">
-        <v>3436.109395824114</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D25" t="n">
-        <v>3272.792622950885</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E25" t="n">
-        <v>3106.584417103738</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F25" t="n">
-        <v>2934.722642878299</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>5103.902912240871</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>4823.718463741176</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>4542.006996349204</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>4267.154592521717</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>4024.590695967522</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>3798.247927657264</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6309,13 +6311,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>105.4776804749704</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>105.4776804749704</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1194.79262694784</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O27" t="n">
         <v>1194.79262694784</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>882.9456501749507</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>710.9730870538667</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>547.6563141806374</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>381.4481083334909</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>209.5863341080514</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.018283751469</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W28" t="n">
-        <v>1542.018283751469</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>1299.454387197274</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1073.111618887016</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6543,16 +6545,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>941.9189991784958</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>769.9464360574118</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D31" t="n">
-        <v>606.6296631841825</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2119.183384356601</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1875.844036582501</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1875.844036582501</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1875.844036582501</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1600.991632755014</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>1358.427736200819</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.084967890562</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M32" t="n">
-        <v>2988.069926596602</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5068.0970569786</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>5068.0970569786</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>5068.0970569786</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4951.828802806542</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>4676.976398979054</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>4434.41250242486</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7020,22 +7022,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1364.825557038856</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C37" t="n">
-        <v>274.1644876312681</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2080.341048828269</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1800.156600328573</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1518.445132936602</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1518.445132936602</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1275.881236382407</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7187,10 +7189,10 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4090.576687723259</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4798.855966881186</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291427</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>390.8583291475138</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>390.8583291475138</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1446.844867123559</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.9291292906458</v>
+        <v>756.1902889499656</v>
       </c>
       <c r="C40" t="n">
-        <v>617.9565661695618</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="D40" t="n">
-        <v>454.6397932963325</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E40" t="n">
-        <v>288.4315874491861</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F40" t="n">
-        <v>116.5698132237465</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2215.166141520042</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1971.826793745942</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1971.826793745942</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1690.115326353971</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844841</v>
+        <v>1415.262922526484</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906458</v>
+        <v>1172.699025972289</v>
       </c>
       <c r="Y40" t="n">
-        <v>789.9291292906458</v>
+        <v>946.3562576620313</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1765.976622961234</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>1339.075892974534</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>915.7832721595344</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>489.8063323073919</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>64.68215049679215</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>924.945020886074</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L41" t="n">
-        <v>1725.386633283877</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M41" t="n">
-        <v>2525.82824568168</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N41" t="n">
-        <v>2525.82824568168</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>2525.82824568168</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2987.553606997527</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>2591.162257297874</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>2591.162257297874</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2185.824987252764</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>865.123762894595</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>1665.565375292398</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>740.98166339623</v>
+        <v>3762.819070568767</v>
       </c>
       <c r="C43" t="n">
-        <v>569.009100275146</v>
+        <v>3590.846507447683</v>
       </c>
       <c r="D43" t="n">
-        <v>569.009100275146</v>
+        <v>3427.529734574454</v>
       </c>
       <c r="E43" t="n">
-        <v>402.8008944279995</v>
+        <v>3261.321528727307</v>
       </c>
       <c r="F43" t="n">
-        <v>230.93912020256</v>
+        <v>3089.459754501868</v>
       </c>
       <c r="G43" t="n">
-        <v>64.68215049679215</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679215</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="U43" t="n">
-        <v>1504.397720842433</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="V43" t="n">
-        <v>1222.686253450462</v>
+        <v>4696.744107972772</v>
       </c>
       <c r="W43" t="n">
-        <v>947.8338496229746</v>
+        <v>4421.891704145285</v>
       </c>
       <c r="X43" t="n">
-        <v>740.98166339623</v>
+        <v>4179.32780759109</v>
       </c>
       <c r="Y43" t="n">
-        <v>740.98166339623</v>
+        <v>3952.985039280833</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1765.976622961234</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>1339.075892974534</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>915.7832721595344</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>489.8063323073919</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>64.68215049679215</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679215</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>1142.793917289187</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>1943.23552968699</v>
+        <v>1013.800675230822</v>
       </c>
       <c r="M44" t="n">
-        <v>1943.23552968699</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N44" t="n">
-        <v>1943.23552968699</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O44" t="n">
-        <v>2743.677142084793</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P44" t="n">
-        <v>2778.022045335424</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712748</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T44" t="n">
-        <v>3129.740230712748</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U44" t="n">
-        <v>3129.740230712748</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V44" t="n">
-        <v>2772.250815838997</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>2772.250815838997</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>2360.530817006745</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>2185.824987252764</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>72.12879345870398</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>72.12879345870398</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K45" t="n">
-        <v>526.7633817320166</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="L45" t="n">
-        <v>1327.204994129819</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="M45" t="n">
-        <v>1327.204994129819</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N45" t="n">
-        <v>1327.204994129819</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>1327.204994129819</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>1327.204994129819</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>643.5363232426751</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="C46" t="n">
-        <v>471.5637601215911</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="D46" t="n">
-        <v>308.2469872483618</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="E46" t="n">
-        <v>308.2469872483618</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="F46" t="n">
-        <v>308.2469872483618</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2027.921517116229</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T46" t="n">
-        <v>1784.582169342129</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U46" t="n">
-        <v>1504.397720842433</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V46" t="n">
-        <v>1222.686253450462</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W46" t="n">
-        <v>947.8338496229746</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X46" t="n">
-        <v>705.2699530687797</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y46" t="n">
-        <v>643.5363232426751</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7984,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N2" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>181.6704383876113</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8052,25 +8054,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>90.41920043198758</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>179.6167914733348</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
@@ -8079,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>450.7747902674474</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>110.4928214404736</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>268.0669951958121</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8310,7 +8312,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>259.9167409896189</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
@@ -8462,13 +8464,13 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>300.3028744740158</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8529,10 +8531,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>467.0051119838363</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8544,16 +8546,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>268.8396510847011</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,16 +8695,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425247</v>
+        <v>929.6457670181238</v>
       </c>
       <c r="M11" t="n">
-        <v>414.0717152963125</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8766,10 +8768,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8778,16 +8780,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>831.698770932124</v>
+        <v>510.4039481765655</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.6504784757505</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>625.9087538031591</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>356.1600067973677</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9005,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>232.7616103530358</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>482.0566840416755</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9018,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>831.698770932124</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,16 +9251,16 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>281.3706244104145</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9401,28 +9403,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>866.431015736377</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>26.3038179559056</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9647,10 +9649,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O23" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O24" t="n">
-        <v>783.4760236661258</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9881,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>56.96224792398087</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>25.72212415780718</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9966,7 +9968,7 @@
         <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P27" t="n">
         <v>745.2028786174529</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10121,16 +10123,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>743.9259979858341</v>
       </c>
       <c r="O29" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10191,19 +10193,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>355.138624957478</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>660.9541399377149</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10604,10 +10606,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,13 +10670,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>453.1210588457837</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,10 +10685,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,13 +10837,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
-        <v>355.5991224937308</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10899,19 +10901,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>39.42764440110528</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10920,7 +10922,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>538.4508751103511</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>917.0559591314635</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,13 +11144,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>831.0419679241314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222298</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N42" t="n">
-        <v>231.2464684003136</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425247</v>
+        <v>238.5296407925553</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>72.26718327551558</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11370,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>481.6260906750632</v>
+        <v>474.5964003263118</v>
       </c>
       <c r="L45" t="n">
-        <v>831.0419679241314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11394,10 +11396,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>318.2526709498834</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,13 +23418,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>161.8765877394558</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>80.25761404516962</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.01266605490034</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>101.2498895301397</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>25.26977227813215</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>115.3083605597531</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>163.7887810877083</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080107</v>
+        <v>18.44967133088738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>165.7641609568371</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.7855238263084</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>58.38361551350958</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0.6172179931341049</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>6.536664108324629</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>163.7887810877132</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>118.557719078891</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>40.55500922557789</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>150.4699711889714</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25597,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>101.5595937001312</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>109.8261420613534</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>189.8641722868415</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>35.35459322417577</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>228.3251258882177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26035,7 +26037,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>15.45161649254067</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>162.9630470993118</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>406343.4492026774</v>
+        <v>539599.9337147127</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>406343.4492026773</v>
+        <v>539599.9337147127</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>547979.6430590112</v>
+        <v>547979.6430590111</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>547979.6430590112</v>
+        <v>547979.643059011</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>547979.6430590112</v>
+        <v>547979.6430590111</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>547979.643059011</v>
+        <v>547979.6430590111</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>547979.6430590111</v>
+        <v>547979.643059011</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>406343.4492026773</v>
+        <v>539599.9337147127</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>406343.4492026774</v>
+        <v>539599.9337147127</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451393.0677086513</v>
+        <v>451393.0677086512</v>
       </c>
       <c r="C2" t="n">
-        <v>451393.0677086512</v>
+        <v>451393.0677086515</v>
       </c>
       <c r="D2" t="n">
-        <v>451393.0677086512</v>
+        <v>451393.0677086514</v>
       </c>
       <c r="E2" t="n">
-        <v>322990.946802128</v>
+        <v>428912.7678245153</v>
       </c>
       <c r="F2" t="n">
-        <v>322990.946802128</v>
+        <v>428912.7678245151</v>
       </c>
       <c r="G2" t="n">
         <v>435573.5624315217</v>
@@ -26332,28 +26334,28 @@
         <v>435573.5624315217</v>
       </c>
       <c r="I2" t="n">
-        <v>435573.5624315213</v>
+        <v>435573.5624315214</v>
       </c>
       <c r="J2" t="n">
         <v>435573.5624315217</v>
       </c>
       <c r="K2" t="n">
+        <v>435573.5624315216</v>
+      </c>
+      <c r="L2" t="n">
+        <v>435573.5624315215</v>
+      </c>
+      <c r="M2" t="n">
         <v>435573.5624315214</v>
       </c>
-      <c r="L2" t="n">
-        <v>435573.5624315216</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>435573.5624315217</v>
       </c>
-      <c r="N2" t="n">
-        <v>435573.5624315215</v>
-      </c>
       <c r="O2" t="n">
-        <v>322990.946802128</v>
+        <v>428912.7678245151</v>
       </c>
       <c r="P2" t="n">
-        <v>322990.946802128</v>
+        <v>428912.7678245153</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,13 +26426,13 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7341333215405</v>
+        <v>786.9066424250631</v>
       </c>
       <c r="F4" t="n">
-        <v>577.7341333215405</v>
+        <v>786.9066424250632</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="H4" t="n">
         <v>800.0602599433672</v>
@@ -26442,22 +26444,22 @@
         <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
+        <v>800.0602599433673</v>
+      </c>
+      <c r="L4" t="n">
+        <v>800.0602599433672</v>
+      </c>
+      <c r="M4" t="n">
+        <v>800.060259943367</v>
+      </c>
+      <c r="N4" t="n">
         <v>800.0602599433671</v>
       </c>
-      <c r="L4" t="n">
-        <v>800.0602599433671</v>
-      </c>
-      <c r="M4" t="n">
-        <v>800.0602599433671</v>
-      </c>
-      <c r="N4" t="n">
-        <v>800.0602599433672</v>
-      </c>
       <c r="O4" t="n">
-        <v>577.7341333215406</v>
+        <v>786.9066424250631</v>
       </c>
       <c r="P4" t="n">
-        <v>577.7341333215405</v>
+        <v>786.9066424250631</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>58034.33392419296</v>
       </c>
       <c r="C6" t="n">
-        <v>244439.0673389301</v>
+        <v>244439.0673389305</v>
       </c>
       <c r="D6" t="n">
-        <v>244439.0673389301</v>
+        <v>244439.0673389304</v>
       </c>
       <c r="E6" t="n">
-        <v>197923.8271377822</v>
+        <v>144635.0954574968</v>
       </c>
       <c r="F6" t="n">
-        <v>273254.7782912445</v>
+        <v>352067.3830740575</v>
       </c>
       <c r="G6" t="n">
-        <v>228133.0401716082</v>
+        <v>349397.8178996672</v>
       </c>
       <c r="H6" t="n">
-        <v>357023.4399831487</v>
+        <v>357023.4399831486</v>
       </c>
       <c r="I6" t="n">
-        <v>357023.4399831482</v>
+        <v>357023.4399831483</v>
       </c>
       <c r="J6" t="n">
-        <v>211489.7700483321</v>
+        <v>211489.7700483322</v>
       </c>
       <c r="K6" t="n">
-        <v>357023.4399831484</v>
+        <v>357023.4399831485</v>
       </c>
       <c r="L6" t="n">
         <v>357023.4399831485</v>
       </c>
       <c r="M6" t="n">
-        <v>294149.5030177748</v>
+        <v>183892.9487775087</v>
       </c>
       <c r="N6" t="n">
-        <v>357023.4399831485</v>
+        <v>357023.4399831486</v>
       </c>
       <c r="O6" t="n">
-        <v>273254.7782912445</v>
+        <v>352067.3830740576</v>
       </c>
       <c r="P6" t="n">
-        <v>273254.7782912444</v>
+        <v>352067.3830740578</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,70 +27384,70 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>375.693533897366</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>218.7163152458132</v>
+      </c>
+      <c r="U2" t="n">
+        <v>255.7713603095518</v>
+      </c>
+      <c r="V2" t="n">
+        <v>353.914520725013</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>400</v>
-      </c>
-      <c r="H2" t="n">
-        <v>294.8896947407055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>34.5479025439635</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>74.65813289307471</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>153.4739695386584</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>129.9491293546259</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>279.9424765091181</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.9323154271057</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.13019988286499</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>50.83646120945178</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27910,16 +27912,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>237.8220101678111</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>304.4193999494619</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28064,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>134.9184038888532</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28627,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.190252600806797e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28728,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28861,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-4.484950034982556e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28962,7 +28964,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -30223,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.642779091942156e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30441,7 +30443,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -34702,22 +34704,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34772,25 +34774,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>67.90411371775802</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>158.2737632597932</v>
+      </c>
+      <c r="O3" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N3" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
+        <v>73.06155854104179</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,20 +35011,20 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>245.6677613624788</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
@@ -35030,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
@@ -35182,13 +35184,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>444.605878150503</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>245.6677613624789</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,16 +35415,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099018</v>
+        <v>891.3337245855009</v>
       </c>
       <c r="M11" t="n">
-        <v>376.6404523968807</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099018</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>209.903440186772</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>588.4774909037274</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>318.5846449871364</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>212.1504960197024</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>459.6574502083421</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099018</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937791</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36121,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>829.040056380353</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>3.207037443577619</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36367,10 +36369,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O23" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
         <v>715.433615311038</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O24" t="n">
-        <v>760.3041339439036</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36601,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>19.53098502454905</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>3.207037443577619</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,7 +36688,7 @@
         <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P27" t="n">
         <v>723.4320374126243</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36841,16 +36843,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>706.646375151388</v>
       </c>
       <c r="O29" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>332.04184444515</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>623.5228770382831</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37324,10 +37326,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>430.0242783334557</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,13 +37557,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
-        <v>319.4744478891327</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>17.02841056777194</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>502.6862743155418</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>879.6246962320317</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099018</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N42" t="n">
-        <v>209.903440186772</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099018</v>
+        <v>200.2175983599324</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>34.69182146528428</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>459.2268568417299</v>
+        <v>452.1971664929785</v>
       </c>
       <c r="L45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2217305.674580969</v>
+        <v>2216587.684466111</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760738</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6369310.659864035</v>
+        <v>6369310.659864036</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>43.36616070948365</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>16.23111557624603</v>
       </c>
     </row>
     <row r="3">
@@ -819,16 +819,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>27.73710495826901</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -837,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -882,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>110.1891282340271</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>142.6892461777147</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>61.03269750657407</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>110.8471439350452</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>101.4886948463811</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>416.7493084353857</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1150,10 +1150,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>154.6054260348455</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>51.58543740429392</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1381,7 +1381,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>312.9009087555611</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1426,7 +1426,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>2.669536049219191</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>26.43787917092126</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1587,7 +1587,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1621,10 +1621,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>292.3236405495131</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>290.2412846893639</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>73.50111029899463</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>24.43802729683349</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>54.83479592343207</v>
+        <v>6.354375395472246</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>205.6296692962681</v>
       </c>
       <c r="V22" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>4.378995526348093</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2496,7 +2496,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>40.16403297592249</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>57.49259391390187</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.15366458399268</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3006,13 +3006,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3192,7 +3192,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3.554365680750151</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>124.7343684644407</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3432,16 +3432,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>200.3509450707811</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3486,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>66.87410330592532</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>269.6151506930049</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>311.0876633699169</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3915,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>89.03018043120986</v>
+        <v>262.356874735421</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3982,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>345.6355659138804</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>29.89949249262175</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>149.1427835161695</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1699.368187588183</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C2" t="n">
-        <v>1676.507861641888</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D2" t="n">
-        <v>1632.703658905035</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E2" t="n">
-        <v>1206.726719052893</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
         <v>79.39509630577632</v>
@@ -4339,16 +4339,16 @@
         <v>407.101683866143</v>
       </c>
       <c r="M2" t="n">
-        <v>455.3583126271592</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N2" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
-        <v>1556.689382596036</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q2" t="n">
         <v>2107.354917580474</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>1724.152608635864</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>1716.473013844015</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y2" t="n">
-        <v>1715.176147839309</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N3" t="n">
-        <v>751.8547856608809</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>626.1818057320246</v>
+        <v>712.093719702862</v>
       </c>
       <c r="C4" t="n">
-        <v>626.1818057320246</v>
+        <v>684.0764419672367</v>
       </c>
       <c r="D4" t="n">
-        <v>626.1818057320246</v>
+        <v>520.7596690940074</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>354.551463246861</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>816.3477744440902</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.3477744440902</v>
+        <v>902.2596884149276</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2200.126831414696</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>2055.996279720035</v>
+        <v>950.0470931132614</v>
       </c>
       <c r="D5" t="n">
-        <v>1632.703658905035</v>
+        <v>930.7948763386657</v>
       </c>
       <c r="E5" t="n">
-        <v>1206.726719052893</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>781.6025372422929</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
@@ -4570,16 +4570,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L5" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M5" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="L5" t="n">
-        <v>1145.829295018124</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1218.160237973755</v>
-      </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O5" t="n">
         <v>1218.160237973755</v>
@@ -4600,19 +4600,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2163.262063061797</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K6" t="n">
-        <v>602.6104029955975</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L6" t="n">
-        <v>602.6104029955975</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M6" t="n">
-        <v>1153.275937980036</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N6" t="n">
-        <v>1153.275937980036</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O6" t="n">
-        <v>1153.275937980036</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>738.2594066832703</v>
+        <v>628.878306791842</v>
       </c>
       <c r="C7" t="n">
-        <v>566.2868435621863</v>
+        <v>628.878306791842</v>
       </c>
       <c r="D7" t="n">
-        <v>454.3200315065851</v>
+        <v>628.878306791842</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>462.6701009446955</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>290.8083267192559</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2007.737591668685</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U7" t="n">
-        <v>1727.553143168989</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V7" t="n">
-        <v>1445.841675777018</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W7" t="n">
-        <v>1170.989271949531</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X7" t="n">
-        <v>928.4253753953359</v>
+        <v>855.2210751020999</v>
       </c>
       <c r="Y7" t="n">
-        <v>928.4253753953359</v>
+        <v>628.878306791842</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2043.959734409802</v>
+        <v>966.965586482338</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.059004423102</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.766383608102</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>342.66526194536</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,16 +4807,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L8" t="n">
         <v>116.829168004879</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
+        <v>116.829168004879</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.4947029893171</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1218.160237973755</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
         <v>1218.160237973755</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W8" t="n">
-        <v>2068.744155457482</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X8" t="n">
-        <v>2061.064560665634</v>
+        <v>984.0704127381697</v>
       </c>
       <c r="Y8" t="n">
-        <v>2059.767694660928</v>
+        <v>982.7735467334641</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>838.3748437825398</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>96.60472747782725</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>96.60472747782725</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>96.60472747782725</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>96.60472747782725</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>96.60472747782725</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
         <v>837.1812570720355</v>
@@ -5047,22 +5047,22 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>2060.609099011031</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>3064.895200430089</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N11" t="n">
-        <v>4041.14625891679</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O11" t="n">
-        <v>4886.290909067602</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P11" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
@@ -5074,19 +5074,19 @@
         <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>962.2593607269207</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>962.2593607269207</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M12" t="n">
-        <v>962.2593607269207</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N12" t="n">
-        <v>962.2593607269207</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>684.4570266215845</v>
+        <v>605.867477820625</v>
       </c>
       <c r="C13" t="n">
-        <v>684.4570266215845</v>
+        <v>433.894914699541</v>
       </c>
       <c r="D13" t="n">
-        <v>684.4570266215845</v>
+        <v>270.5781418263117</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>270.5781418263117</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>270.5781418263117</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5226,25 +5226,25 @@
         <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2233.451358979291</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>1990.112011205191</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1709.927562705496</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1428.216095313524</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="W13" t="n">
-        <v>1153.363691486037</v>
+        <v>1264.940111397143</v>
       </c>
       <c r="X13" t="n">
-        <v>910.7997949318425</v>
+        <v>1022.376214842949</v>
       </c>
       <c r="Y13" t="n">
-        <v>684.4570266215845</v>
+        <v>796.0334465326906</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721394</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C14" t="n">
-        <v>2002.512341734694</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.219720919694</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.242781067552</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F14" t="n">
-        <v>728.1185992569519</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H14" t="n">
         <v>134.9738161355189</v>
@@ -5278,52 +5278,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2749.496401892824</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3725.747460379525</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>4570.892110530337</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058034</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012924</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>555.1378205852488</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M15" t="n">
-        <v>555.1378205852488</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N15" t="n">
-        <v>555.1378205852488</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.6798067024497</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>675.7072435813657</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>512.3904707081364</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>346.1822648609899</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>174.3204906355503</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>174.3204906355503</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>174.3204906355503</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>2063.316311498426</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U16" t="n">
-        <v>2063.316311498426</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="V16" t="n">
-        <v>1781.604844106455</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="W16" t="n">
-        <v>1506.752440278968</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>1264.188543724773</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>1037.845775414515</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5521,13 +5521,13 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
         <v>3833.214576747414</v>
@@ -5542,22 +5542,22 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,19 +5591,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.7214084612541</v>
+        <v>1020.040622710153</v>
       </c>
       <c r="C19" t="n">
-        <v>733.7214084612541</v>
+        <v>848.0680595890694</v>
       </c>
       <c r="D19" t="n">
-        <v>733.7214084612541</v>
+        <v>684.7512867158401</v>
       </c>
       <c r="E19" t="n">
-        <v>567.5132026141076</v>
+        <v>518.5430808686937</v>
       </c>
       <c r="F19" t="n">
         <v>512.1245198631661</v>
@@ -5676,49 +5676,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358278</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302486</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100499</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976535</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818961</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818961</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044861</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545165</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.480477153194</v>
+        <v>1953.965660114159</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.628073325707</v>
+        <v>1679.113256286672</v>
       </c>
       <c r="X19" t="n">
-        <v>960.0641767715121</v>
+        <v>1436.549359732477</v>
       </c>
       <c r="Y19" t="n">
-        <v>733.7214084612541</v>
+        <v>1210.206591422219</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5943,16 +5943,16 @@
         <v>2282.715740818957</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>2075.00900415606</v>
       </c>
       <c r="V22" t="n">
-        <v>2019.640305074347</v>
+        <v>1793.297536764089</v>
       </c>
       <c r="W22" t="n">
-        <v>1744.78790124686</v>
+        <v>1518.445132936602</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>1275.881236382407</v>
       </c>
       <c r="Y22" t="n">
         <v>1275.881236382407</v>
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,22 +6065,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>516.5477476675582</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C25" t="n">
-        <v>516.5477476675582</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D25" t="n">
-        <v>516.5477476675582</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E25" t="n">
-        <v>516.5477476675582</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6177,22 +6177,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,25 +6302,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2235.67712750613</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2235.67712750613</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3813.905540636432</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4659.050190787244</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.4203922683193</v>
+        <v>1071.584599994741</v>
       </c>
       <c r="C31" t="n">
-        <v>201.4478291472353</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>201.4478291472353</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>201.4478291472353</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>201.4478291472353</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>201.4478291472353</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>201.4478291472353</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906429</v>
+        <v>1297.927368304999</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.5863609803849</v>
+        <v>1071.584599994741</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
         <v>5115.135670291427</v>
@@ -6776,19 +6776,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>446.1370507523521</v>
+        <v>615.9842888225141</v>
       </c>
       <c r="C34" t="n">
-        <v>274.1644876312681</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1644876312681</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>862.6457877746757</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y34" t="n">
-        <v>636.3030194644177</v>
+        <v>806.1502575345799</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,19 +7013,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2080.341048828269</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1800.156600328573</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.445132936602</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1518.445132936602</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>1275.881236382407</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.881236382407</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7183,19 +7183,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7250,19 +7250,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>756.1902889499656</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="C40" t="n">
-        <v>584.2177258288816</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D40" t="n">
-        <v>584.2177258288816</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E40" t="n">
         <v>584.2177258288816</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.166141520042</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T40" t="n">
-        <v>1971.826793745942</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U40" t="n">
-        <v>1971.826793745942</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V40" t="n">
-        <v>1690.115326353971</v>
+        <v>1439.814795178794</v>
       </c>
       <c r="W40" t="n">
-        <v>1415.262922526484</v>
+        <v>1164.962391351307</v>
       </c>
       <c r="X40" t="n">
-        <v>1172.699025972289</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="Y40" t="n">
-        <v>946.3562576620313</v>
+        <v>922.3984947971121</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721394</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>2002.512341734694</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1900.530441767978</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>2876.781500254679</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>3721.926150405491</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.205429563419</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822645</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867278</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.19946946369</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589939</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890286</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058034</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012924</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M42" t="n">
-        <v>819.4496289866299</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N42" t="n">
         <v>1908.7645754595</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3762.819070568767</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="C43" t="n">
-        <v>3590.846507447683</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="D43" t="n">
-        <v>3427.529734574454</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="E43" t="n">
-        <v>3261.321528727307</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F43" t="n">
-        <v>3089.459754501868</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G43" t="n">
-        <v>2923.2027847961</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>4786.673583155813</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>4786.673583155813</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>4786.673583155813</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>4696.744107972772</v>
+        <v>1491.959231841129</v>
       </c>
       <c r="W43" t="n">
-        <v>4421.891704145285</v>
+        <v>1217.106828013642</v>
       </c>
       <c r="X43" t="n">
-        <v>4179.32780759109</v>
+        <v>974.5429314594476</v>
       </c>
       <c r="Y43" t="n">
-        <v>3952.985039280833</v>
+        <v>748.2001631491896</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2503.578858279949</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>2076.678128293249</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
         <v>1653.385507478249</v>
@@ -7648,25 +7648,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1013.800675230822</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2018.08677664988</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2994.337835136581</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>3839.482485287394</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P44" t="n">
-        <v>4547.761764445321</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q44" t="n">
         <v>5003.847243949504</v>
@@ -7675,25 +7675,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4973.6457363812</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4752.720165425832</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4494.365256022244</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4136.875841148494</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3740.484491448841</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>3328.764492616588</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2923.427222571479</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7724,19 +7724,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>819.4496289866299</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>819.4496289866299</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M45" t="n">
-        <v>819.4496289866299</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N45" t="n">
         <v>1908.7645754595</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>494.2910579095189</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>494.2910579095189</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>494.2910579095189</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>494.2910579095189</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>494.2910579095189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7830,28 +7830,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2233.451358979291</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>1990.112011205191</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>1709.927562705496</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>1428.216095313524</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>1153.363691486037</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>910.7997949318425</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>684.4570266215845</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>86.17533235500369</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>593.5074359500402</v>
@@ -7999,7 +7999,7 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>84.86874406016992</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8069,7 +8069,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>179.6167914733348</v>
+        <v>259.4889279983318</v>
       </c>
       <c r="O3" t="n">
         <v>579.3997028378163</v>
@@ -8078,7 +8078,7 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8218,19 +8218,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>110.4928214404736</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>110.3411813754879</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
@@ -8294,31 +8294,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>175.9092261537768</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>259.9167409896189</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8455,19 +8455,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>108.8261593358512</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>111.3736009736648</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8546,16 +8546,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>268.8396510847011</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>929.6457670181238</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8707,13 +8707,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8774,22 +8774,22 @@
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>510.4039481765655</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>356.1600067973677</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>482.0566840416755</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9169,16 +9169,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>763.430074865614</v>
+        <v>848.7638096822445</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9488,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>467.8471946375121</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9649,19 +9649,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,25 +9713,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N24" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9889,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>355.5991224937308</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>26.37892716579976</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>809.3863451554519</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>743.9259979858341</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10366,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10597,19 +10597,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>917.0559591314635</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685299</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>238.5296407925553</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
         <v>1051.861668373228</v>
@@ -11314,10 +11314,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>474.5964003263118</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>161.8765877394558</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>138.1565208377889</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>107.9720312369327</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4.648410051341614</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>25.26977227813215</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>252.9445767178653</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>115.3083605597531</v>
+        <v>163.7887810877129</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>71.75293471843062</v>
       </c>
       <c r="V22" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>231.9398468132896</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.7602435759713</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6172179931341049</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>158.1292394637468</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>63.52994056050433</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25362,10 +25362,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>40.55500922557789</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>101.5595937001312</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>9.279202025046459</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>189.8641722868415</v>
+        <v>16.53747798263038</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.42412869296925</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26034,16 +26034,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>15.45161649254067</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>547979.6430590112</v>
+        <v>547979.6430590111</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>547979.643059011</v>
+        <v>547979.6430590111</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>547979.6430590111</v>
+        <v>547979.6430590112</v>
       </c>
     </row>
     <row r="14">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451393.0677086512</v>
+        <v>451393.0677086514</v>
       </c>
       <c r="C2" t="n">
-        <v>451393.0677086515</v>
+        <v>451393.0677086513</v>
       </c>
       <c r="D2" t="n">
-        <v>451393.0677086514</v>
+        <v>451393.0677086511</v>
       </c>
       <c r="E2" t="n">
-        <v>428912.7678245153</v>
+        <v>428912.7678245152</v>
       </c>
       <c r="F2" t="n">
-        <v>428912.7678245151</v>
+        <v>428912.767824515</v>
       </c>
       <c r="G2" t="n">
         <v>435573.5624315217</v>
@@ -26334,28 +26334,28 @@
         <v>435573.5624315217</v>
       </c>
       <c r="I2" t="n">
-        <v>435573.5624315214</v>
+        <v>435573.5624315217</v>
       </c>
       <c r="J2" t="n">
+        <v>435573.5624315215</v>
+      </c>
+      <c r="K2" t="n">
+        <v>435573.5624315215</v>
+      </c>
+      <c r="L2" t="n">
         <v>435573.5624315217</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>435573.5624315216</v>
-      </c>
-      <c r="L2" t="n">
-        <v>435573.5624315215</v>
-      </c>
-      <c r="M2" t="n">
-        <v>435573.5624315214</v>
       </c>
       <c r="N2" t="n">
         <v>435573.5624315217</v>
       </c>
       <c r="O2" t="n">
-        <v>428912.7678245151</v>
+        <v>428912.7678245152</v>
       </c>
       <c r="P2" t="n">
-        <v>428912.7678245153</v>
+        <v>428912.7678245152</v>
       </c>
     </row>
     <row r="3">
@@ -26420,46 +26420,46 @@
         <v>139507.7493322929</v>
       </c>
       <c r="C4" t="n">
-        <v>139507.7493322929</v>
+        <v>139507.749332293</v>
       </c>
       <c r="D4" t="n">
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>786.9066424250631</v>
+        <v>786.906642425063</v>
       </c>
       <c r="F4" t="n">
-        <v>786.9066424250632</v>
+        <v>786.906642425063</v>
       </c>
       <c r="G4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="H4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="I4" t="n">
+        <v>800.0602599433672</v>
+      </c>
+      <c r="J4" t="n">
         <v>800.0602599433673</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="L4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="M4" t="n">
         <v>800.0602599433672</v>
       </c>
-      <c r="I4" t="n">
-        <v>800.0602599433671</v>
-      </c>
-      <c r="J4" t="n">
-        <v>800.0602599433671</v>
-      </c>
-      <c r="K4" t="n">
-        <v>800.0602599433673</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>800.0602599433672</v>
       </c>
-      <c r="M4" t="n">
-        <v>800.060259943367</v>
-      </c>
-      <c r="N4" t="n">
-        <v>800.0602599433671</v>
-      </c>
       <c r="O4" t="n">
-        <v>786.9066424250631</v>
+        <v>786.906642425063</v>
       </c>
       <c r="P4" t="n">
-        <v>786.9066424250631</v>
+        <v>786.906642425063</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58034.33392419296</v>
+        <v>58034.33392419311</v>
       </c>
       <c r="C6" t="n">
-        <v>244439.0673389305</v>
+        <v>244439.0673389302</v>
       </c>
       <c r="D6" t="n">
-        <v>244439.0673389304</v>
+        <v>244439.0673389301</v>
       </c>
       <c r="E6" t="n">
-        <v>144635.0954574968</v>
+        <v>144562.5783610964</v>
       </c>
       <c r="F6" t="n">
-        <v>352067.3830740575</v>
+        <v>351994.8659776571</v>
       </c>
       <c r="G6" t="n">
-        <v>349397.8178996672</v>
+        <v>349346.7872374828</v>
       </c>
       <c r="H6" t="n">
-        <v>357023.4399831486</v>
+        <v>356972.4093209643</v>
       </c>
       <c r="I6" t="n">
-        <v>357023.4399831483</v>
+        <v>356972.4093209643</v>
       </c>
       <c r="J6" t="n">
-        <v>211489.7700483322</v>
+        <v>211438.7393861477</v>
       </c>
       <c r="K6" t="n">
-        <v>357023.4399831485</v>
+        <v>356972.4093209642</v>
       </c>
       <c r="L6" t="n">
-        <v>357023.4399831485</v>
+        <v>356972.4093209643</v>
       </c>
       <c r="M6" t="n">
-        <v>183892.9487775087</v>
+        <v>183841.9181153247</v>
       </c>
       <c r="N6" t="n">
-        <v>357023.4399831486</v>
+        <v>356972.4093209643</v>
       </c>
       <c r="O6" t="n">
-        <v>352067.3830740576</v>
+        <v>351994.8659776573</v>
       </c>
       <c r="P6" t="n">
-        <v>352067.3830740578</v>
+        <v>351994.8659776572</v>
       </c>
     </row>
   </sheetData>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>375.693533897366</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27441,13 +27441,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>385.0527817684125</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>142.5157325316041</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>129.9491293546259</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>279.9424765091181</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>194.7386628029778</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>50.83646120945178</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>63.10570516232907</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>5.882414251447187</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>237.8220101678111</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>47.18544517283286</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>556.2278131155941</v>
@@ -34719,7 +34719,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>158.2737632597932</v>
+        <v>238.1458997847901</v>
       </c>
       <c r="O3" t="n">
         <v>556.2278131155941</v>
@@ -34798,7 +34798,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
+        <v>73.0615585410419</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M5" t="n">
-        <v>73.06155854104179</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
@@ -35014,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>238.1458997847902</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>73.06155854104185</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>245.6677613624789</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>891.3337245855009</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35427,13 +35427,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
@@ -35494,22 +35494,22 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>318.5846449871364</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>459.6574502083421</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>726.1504520311679</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N18" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937791</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36369,19 +36369,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N24" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36609,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>319.4744478891327</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>771.074302722829</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>706.646375151388</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37086,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37317,19 +37317,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>879.6246962320317</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37797,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562019</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>200.2175983599324</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
         <v>1014.430405473796</v>
@@ -38034,10 +38034,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>452.1971664929785</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
